--- a/RP_Env_Models.xlsx
+++ b/RP_Env_Models.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miapei/Documents/GitHub/BINF_Research_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1632E0F-7847-454D-BE1D-4C9A0E9D4DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18854B97-2824-664A-99F7-D74ADBEB73A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16880" xr2:uid="{EA77389B-3B28-7B4B-A5FA-1A8F63B9B0A0}"/>
+    <workbookView xWindow="5060" yWindow="2760" windowWidth="27640" windowHeight="16880" xr2:uid="{EA77389B-3B28-7B4B-A5FA-1A8F63B9B0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -310,19 +310,13 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -331,7 +325,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -674,7 +674,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,328 +685,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="3"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>0.65539999999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>-49.155999999999999</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>0.2112</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>-90.754999999999995</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>0.25090000000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>-100.226</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>0.3367</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>-106.46899999999999</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>0.61370000000000002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>-133.62200000000001</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>-155.17500000000001</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>0.25240000000000001</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>0.82099999999999995</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>-174.155</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>0.25309999999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>-179.583</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>0.11559999999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>-130.35</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>0.12636</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>0.32079999999999997</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>-178.364</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>-5.7099999999999998E-2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>-134.79400000000001</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>0.59509999999999996</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>0.51790000000000003</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>-181.815</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1017,5 +1017,6 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>